--- a/Labs/Lab8/R and Speed vs PWM.xlsx
+++ b/Labs/Lab8/R and Speed vs PWM.xlsx
@@ -361,11 +361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118339840"/>
-        <c:axId val="118341632"/>
+        <c:axId val="119428992"/>
+        <c:axId val="119430528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118339840"/>
+        <c:axId val="119428992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,12 +375,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118341632"/>
+        <c:crossAx val="119430528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118341632"/>
+        <c:axId val="119430528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118339840"/>
+        <c:crossAx val="119428992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -625,11 +625,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119350016"/>
-        <c:axId val="119351552"/>
+        <c:axId val="119456128"/>
+        <c:axId val="119457664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119350016"/>
+        <c:axId val="119456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,12 +639,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119351552"/>
+        <c:crossAx val="119457664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119351552"/>
+        <c:axId val="119457664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119350016"/>
+        <c:crossAx val="119456128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -983,11 +983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119366400"/>
-        <c:axId val="119367936"/>
+        <c:axId val="119185792"/>
+        <c:axId val="119187328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119366400"/>
+        <c:axId val="119185792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,12 +997,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119367936"/>
+        <c:crossAx val="119187328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119367936"/>
+        <c:axId val="119187328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119366400"/>
+        <c:crossAx val="119185792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1369,11 +1369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45195264"/>
-        <c:axId val="45196800"/>
+        <c:axId val="119220096"/>
+        <c:axId val="119221632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45195264"/>
+        <c:axId val="119220096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,12 +1383,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45196800"/>
+        <c:crossAx val="119221632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45196800"/>
+        <c:axId val="119221632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1399,385 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45195264"/>
+        <c:crossAx val="119220096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Right Turn R vs PWM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14554177602799651"/>
+                  <c:y val="-3.5906969962088071E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>65.005434782608688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.837500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8374999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="62730240"/>
+        <c:axId val="62728448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="62730240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62728448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62728448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62730240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Left Turn R vs PWM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0996281714785652E-2"/>
+                  <c:y val="-4.0112642169728784E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>105.42434210526316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.708333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.0625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8374999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="62005632"/>
+        <c:axId val="62003840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="62005632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62003840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62003840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62005632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1517,16 +1895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1542,6 +1920,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1839,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
